--- a/biology/Botanique/Coslett_Herbert_Waddell/Coslett_Herbert_Waddell.xlsx
+++ b/biology/Botanique/Coslett_Herbert_Waddell/Coslett_Herbert_Waddell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le révérend Coslett Herbert Waddell était un prêtre et un botaniste irlandais, né le 6 mars 1858 à Drumcro dans le comté d'Antrim et mort le 8 juin 1919 à Greyabbey dans le comté de Down.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a un lien de parenté, via sa mère Maria Langtry, à l’actrice Lillie Langtry (1853-1929). Il étudie à Lurgan puis au Trinity College de Dublin où il obtient son Bachelor of Arts en 1880 et son Master of Arts en 1888.
 Il suit son attirance pour la théologie et est ordonné diacre en 1881 et prêtre l’année suivante. Il sert comme prêtre dans plusieurs paroisses (ainsi que vicaire à Saintfield en 1890 et recteur à Greyabbey en 1912). Il poursuit également ses études et obtient son Bachelor of Divinity en 1892.
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Waddell, C.H. 1905. Glyceria festucaeformis at Portaferry. Ir Nat. 14: 19.
 Waddell, C.H. 1912. Some County Down plants. Ir Nat. 21: 133- 134.
